--- a/java/Andamento das aulas.xlsx
+++ b/java/Andamento das aulas.xlsx
@@ -33,7 +33,7 @@
     <t>HERANÇA</t>
   </si>
   <si>
-    <t>CONTINUAR: ENTENDENDO OS CONCEITOS DE SOBRECARGA E HERANÇA</t>
+    <t>CONTINUAR: SOBRESCREVENDO METODOS</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/java/Andamento das aulas.xlsx
+++ b/java/Andamento das aulas.xlsx
@@ -33,7 +33,7 @@
     <t>HERANÇA</t>
   </si>
   <si>
-    <t>CONTINUAR: SOBRESCREVENDO METODOS</t>
+    <t>CONTINUAR: A PALAVRA-CHAVE FINAL</t>
   </si>
 </sst>
 </file>

--- a/java/Andamento das aulas.xlsx
+++ b/java/Andamento das aulas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>ORIENTAÇÃO A OBJETOS</t>
   </si>
@@ -33,7 +33,13 @@
     <t>HERANÇA</t>
   </si>
   <si>
-    <t>CONTINUAR: A PALAVRA-CHAVE FINAL</t>
+    <t>INTERFACE</t>
+  </si>
+  <si>
+    <t>Java - Stream API</t>
+  </si>
+  <si>
+    <t>INTRODUCAO</t>
   </si>
 </sst>
 </file>
@@ -354,37 +360,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/java/Andamento das aulas.xlsx
+++ b/java/Andamento das aulas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>ORIENTAÇÃO A OBJETOS</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>INTRODUCAO</t>
+  </si>
+  <si>
+    <t>PRIMEIROS CONTATOS COM A STREAM API</t>
+  </si>
+  <si>
+    <t>EXPRESSÕES-LAMBDA</t>
+  </si>
+  <si>
+    <t>METODOS E CONCEITOS MAIS COMUNS DA STREAM API</t>
+  </si>
+  <si>
+    <t>CONTINUAR DO VIDEO: STREAM API, O METODO COLLECT() E O "COLETOR" GROUPINGBY</t>
   </si>
 </sst>
 </file>
@@ -360,17 +372,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E5"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -391,6 +404,9 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -399,6 +415,12 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -406,6 +428,20 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
